--- a/data/go_seznam_mentorjev_2122.xlsx
+++ b/data/go_seznam_mentorjev_2122.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kristof\OneDrive - Univerza v Ljubljani\Grajeno okolje\Dokumenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kristof\Python\Varia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C0DE05-4F1C-4BB6-BE1D-15CC61B80AB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3FBAD-C999-4DF7-8FD1-A7EDC4818DC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="303">
   <si>
     <t xml:space="preserve">Naziv </t>
   </si>
@@ -604,21 +604,6 @@
   </si>
   <si>
     <t xml:space="preserve">dusan.zagar@fgg.uni-lj.si </t>
-  </si>
-  <si>
-    <t>Roko</t>
-  </si>
-  <si>
-    <t>Žarnić</t>
-  </si>
-  <si>
-    <t>Gradbeni materiali, masivne konstrukcije, potresno inženirstvo, sanacije konstrukcij, eksperimentalna analiza konstrukcij, razvoj računskih modelov konstrukcij, ojačitve konstrukcij s kompozitnimi materiali, monitoring kulturno-zgodovinskih spomenikov</t>
-  </si>
-  <si>
-    <t>Building materials, reiforced concrete, masonry structures, earthquake engineering, repair and strengthening of structures, experimental analysis of structures, computational modelling of structures, structural strengthening by composite materials, monitoring of cultural monuments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roko.zarnic@fgg.uni-lj.si </t>
   </si>
   <si>
     <t>Marijan</t>
@@ -959,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,15 +980,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1050,9 +1026,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1078,13 +1054,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1393,7 @@
     <col min="4" max="4" width="23.15625" style="1" customWidth="1"/>
     <col min="5" max="6" width="40.83984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
@@ -1440,7 +1419,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1455,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -1466,7 +1445,7 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="11">
         <v>12247</v>
       </c>
     </row>
@@ -1481,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -1492,7 +1471,7 @@
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="11">
         <v>19443</v>
       </c>
     </row>
@@ -1501,18 +1480,18 @@
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="1">
+        <v>198</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="11">
         <v>35409</v>
       </c>
     </row>
@@ -1521,18 +1500,18 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="1">
+        <v>198</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="11">
         <v>11897</v>
       </c>
     </row>
@@ -1547,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1558,7 +1537,7 @@
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="11">
         <v>10379</v>
       </c>
     </row>
@@ -1573,7 +1552,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -1584,7 +1563,7 @@
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="11">
         <v>15189</v>
       </c>
     </row>
@@ -1599,7 +1578,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -1610,7 +1589,7 @@
       <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="11">
         <v>10562</v>
       </c>
     </row>
@@ -1625,7 +1604,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>38</v>
@@ -1636,7 +1615,7 @@
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="11">
         <v>20158</v>
       </c>
     </row>
@@ -1645,18 +1624,18 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10" s="1">
+        <v>198</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="11">
         <v>18683</v>
       </c>
     </row>
@@ -1671,7 +1650,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>45</v>
@@ -1682,7 +1661,7 @@
       <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="11">
         <v>8247</v>
       </c>
     </row>
@@ -1691,18 +1670,18 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H12" s="1">
+        <v>199</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="11">
         <v>20425</v>
       </c>
     </row>
@@ -1711,18 +1690,18 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H13" s="1">
+        <v>198</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" s="11">
         <v>18859</v>
       </c>
     </row>
@@ -1737,7 +1716,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>50</v>
@@ -1748,7 +1727,7 @@
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="11">
         <v>18793</v>
       </c>
     </row>
@@ -1763,7 +1742,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>56</v>
@@ -1774,7 +1753,7 @@
       <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="11">
         <v>29265</v>
       </c>
     </row>
@@ -1783,18 +1762,18 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" s="1">
+        <v>197</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="11">
         <v>11215</v>
       </c>
     </row>
@@ -1803,18 +1782,18 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H17" s="1">
+        <v>198</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="11">
         <v>26550</v>
       </c>
     </row>
@@ -1823,18 +1802,18 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="H18" s="1">
+        <v>198</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="11">
         <v>24339</v>
       </c>
     </row>
@@ -1849,7 +1828,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>61</v>
@@ -1860,7 +1839,7 @@
       <c r="G19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="11">
         <v>25423</v>
       </c>
     </row>
@@ -1875,7 +1854,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
@@ -1886,7 +1865,7 @@
       <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="11">
         <v>11409</v>
       </c>
     </row>
@@ -1909,7 +1888,7 @@
       <c r="G21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="11">
         <v>11892</v>
       </c>
     </row>
@@ -1932,7 +1911,7 @@
       <c r="G22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="11">
         <v>20271</v>
       </c>
     </row>
@@ -1947,7 +1926,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>81</v>
@@ -1958,7 +1937,7 @@
       <c r="G23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="11">
         <v>5674</v>
       </c>
     </row>
@@ -1973,7 +1952,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>86</v>
@@ -1984,7 +1963,7 @@
       <c r="G24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="11">
         <v>7531</v>
       </c>
     </row>
@@ -1999,7 +1978,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>91</v>
@@ -2010,7 +1989,7 @@
       <c r="G25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="11">
         <v>11536</v>
       </c>
     </row>
@@ -2022,15 +2001,15 @@
         <v>162</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H26" s="1">
+        <v>197</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="11">
         <v>6120</v>
       </c>
     </row>
@@ -2045,7 +2024,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -2056,7 +2035,7 @@
       <c r="G27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="11">
         <v>25479</v>
       </c>
     </row>
@@ -2065,15 +2044,15 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H28" s="1">
+        <v>269</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28" s="11">
         <v>20037</v>
       </c>
     </row>
@@ -2088,7 +2067,7 @@
         <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>98</v>
@@ -2099,7 +2078,7 @@
       <c r="G29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="11">
         <v>8354</v>
       </c>
     </row>
@@ -2111,15 +2090,15 @@
         <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H30" s="1">
+        <v>197</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="11">
         <v>10398</v>
       </c>
     </row>
@@ -2128,12 +2107,12 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H31" s="1">
+        <v>276</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H31" s="11">
         <v>30109</v>
       </c>
     </row>
@@ -2142,15 +2121,15 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="H32" s="1">
+        <v>264</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" s="11">
         <v>10956</v>
       </c>
     </row>
@@ -2165,7 +2144,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>103</v>
@@ -2176,7 +2155,7 @@
       <c r="G33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="11">
         <v>24340</v>
       </c>
     </row>
@@ -2191,7 +2170,7 @@
         <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>108</v>
@@ -2202,7 +2181,7 @@
       <c r="G34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="11">
         <v>5985</v>
       </c>
     </row>
@@ -2211,18 +2190,18 @@
         <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H35" s="1">
+        <v>198</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H35" s="11">
         <v>30040</v>
       </c>
     </row>
@@ -2234,12 +2213,12 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="H36" s="1">
+        <v>265</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H36" s="11">
         <v>8386</v>
       </c>
     </row>
@@ -2254,7 +2233,7 @@
         <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>112</v>
@@ -2265,7 +2244,7 @@
       <c r="G37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="11">
         <v>8245</v>
       </c>
     </row>
@@ -2280,7 +2259,7 @@
         <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>117</v>
@@ -2291,7 +2270,7 @@
       <c r="G38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="11">
         <v>24336</v>
       </c>
     </row>
@@ -2306,7 +2285,7 @@
         <v>121</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>122</v>
@@ -2317,7 +2296,7 @@
       <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="11">
         <v>15112</v>
       </c>
     </row>
@@ -2326,18 +2305,18 @@
         <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H40" s="1">
+        <v>197</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H40" s="11">
         <v>19585</v>
       </c>
     </row>
@@ -2360,6 +2339,7 @@
       <c r="G41" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
@@ -2372,7 +2352,7 @@
         <v>130</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>131</v>
@@ -2383,7 +2363,7 @@
       <c r="G42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="11">
         <v>15392</v>
       </c>
     </row>
@@ -2398,7 +2378,7 @@
         <v>135</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>136</v>
@@ -2409,7 +2389,7 @@
       <c r="G43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="11">
         <v>14507</v>
       </c>
     </row>
@@ -2441,15 +2421,15 @@
         <v>31</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="H45" s="1">
+        <v>198</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H45" s="11">
         <v>11712</v>
       </c>
     </row>
@@ -2458,18 +2438,18 @@
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H46" s="1">
+        <v>197</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H46" s="11">
         <v>13531</v>
       </c>
     </row>
@@ -2478,18 +2458,18 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H47" s="1">
+        <v>198</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H47" s="11">
         <v>23474</v>
       </c>
     </row>
@@ -2504,7 +2484,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>149</v>
@@ -2515,7 +2495,7 @@
       <c r="G48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="11">
         <v>9274</v>
       </c>
     </row>
@@ -2530,7 +2510,7 @@
         <v>153</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>154</v>
@@ -2541,7 +2521,7 @@
       <c r="G49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="11">
         <v>10196</v>
       </c>
     </row>
@@ -2556,7 +2536,7 @@
         <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>159</v>
@@ -2567,7 +2547,7 @@
       <c r="G50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="11">
         <v>9063</v>
       </c>
     </row>
@@ -2582,7 +2562,7 @@
         <v>163</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>164</v>
@@ -2593,7 +2573,7 @@
       <c r="G51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="11">
         <v>16258</v>
       </c>
     </row>
@@ -2608,7 +2588,7 @@
         <v>168</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>169</v>
@@ -2619,7 +2599,7 @@
       <c r="G52" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="11">
         <v>5560</v>
       </c>
     </row>
@@ -2628,18 +2608,18 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="H53" s="1">
+        <v>198</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H53" s="11">
         <v>27666</v>
       </c>
     </row>
@@ -2654,7 +2634,7 @@
         <v>173</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>174</v>
@@ -2665,7 +2645,7 @@
       <c r="G54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="11">
         <v>8437</v>
       </c>
     </row>
@@ -2680,7 +2660,7 @@
         <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>178</v>
@@ -2691,7 +2671,7 @@
       <c r="G55" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="11">
         <v>8375</v>
       </c>
     </row>
@@ -2706,7 +2686,7 @@
         <v>182</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>183</v>
@@ -2717,7 +2697,7 @@
       <c r="G56" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="11">
         <v>13184</v>
       </c>
     </row>
@@ -2732,7 +2712,7 @@
         <v>187</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>145</v>
@@ -2743,7 +2723,7 @@
       <c r="G57" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="11">
         <v>19121</v>
       </c>
     </row>
@@ -2758,7 +2738,7 @@
         <v>189</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>45</v>
@@ -2769,109 +2749,114 @@
       <c r="G58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="11">
         <v>12068</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="9" t="s">
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="11">
+        <v>6698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H60" s="1">
-        <v>6698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>204</v>
+      </c>
+      <c r="H60" s="11">
+        <v>14134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="11">
+        <v>21372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H61" s="1">
-        <v>14134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H62" s="1">
-        <v>21372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62" s="11">
+        <v>30744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>213</v>
@@ -2880,7 +2865,7 @@
         <v>214</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>215</v>
@@ -2891,74 +2876,65 @@
       <c r="G63" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H63" s="1">
-        <v>30744</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H63" s="11">
+        <v>11443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H64" s="1">
-        <v>11443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>248</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H64" s="11">
+        <v>23971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="H65" s="1">
-        <v>23971</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>218</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H65" s="11">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H66" s="1">
-        <v>26552</v>
+        <v>252</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H66" s="11">
+        <v>23426</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2966,30 +2942,39 @@
         <v>20</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="H67" s="1">
-        <v>23426</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" s="11">
+        <v>20249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>229</v>
@@ -3000,56 +2985,56 @@
       <c r="G68" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H68" s="1">
-        <v>20249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H68" s="11">
+        <v>24253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="G69" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" s="11">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H69" s="1">
-        <v>24253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="H70" s="1">
-        <v>15900</v>
+      <c r="H70" s="11">
+        <v>22449</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>237</v>
@@ -3058,7 +3043,7 @@
         <v>238</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>239</v>
@@ -3069,33 +3054,7 @@
       <c r="G71" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H71" s="1">
-        <v>22449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H72" s="1">
+      <c r="H71" s="11">
         <v>1384</v>
       </c>
     </row>
@@ -3104,11 +3063,11 @@
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G45" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G65" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G67" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G66" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="G40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G46" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="G18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
